--- a/02_Opplæring og kompetanse/Videregående opplæring - Læringsmiljø/EU og LLU 2023.xlsx
+++ b/02_Opplæring og kompetanse/Videregående opplæring - Læringsmiljø/EU og LLU 2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/kjetil_gunnerud_kristoffersen_vestfoldfylke_no/Documents/Dokumenter/GitHub2/Vestfold/02_Opplæring og kompetanse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/kjetil_gunnerud_kristoffersen_vestfoldfylke_no/Documents/Dokumenter/GitHub2/Vestfold/02_Opplæring og kompetanse/Videregående opplæring - Læringsmiljø/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{EBAC5522-4704-4BDC-92CE-C651F0AE34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1870,15 +1870,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B84891-15B8-4A87-9EB0-2D33057FF640}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="8d45c07e-cea8-4d72-a849-d7d407865be5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_Opplæring og kompetanse/Videregående opplæring - Læringsmiljø/EU og LLU 2023.xlsx
+++ b/02_Opplæring og kompetanse/Videregående opplæring - Læringsmiljø/EU og LLU 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/kjetil_gunnerud_kristoffersen_vestfoldfylke_no/Documents/Dokumenter/GitHub2/Vestfold/02_Opplæring og kompetanse/Videregående opplæring - Læringsmiljø/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBAC5522-4704-4BDC-92CE-C651F0AE34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{EBAC5522-4704-4BDC-92CE-C651F0AE34BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B6EA65F-5EF2-45D9-B8D0-1BF9B28E3A8D}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-5490" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{BA56CB7D-58D4-49CC-999D-02D16816231F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{BA56CB7D-58D4-49CC-999D-02D16816231F}"/>
   </bookViews>
   <sheets>
     <sheet name="Trivsel" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="51">
   <si>
     <t>Vg1</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>Ikke i det hele tatt</t>
+  </si>
+  <si>
+    <t>Andelen lærlinger (i utdanningsprogram med over 50 besvarelser) som oppgir at de har opplevd mobbing på arbeidsplassen de siste månedene. Vestfold, høst 2023</t>
+  </si>
+  <si>
+    <t>en sjelden gang</t>
+  </si>
+  <si>
+    <t>2-3 ganger i måneden</t>
+  </si>
+  <si>
+    <t>Omtrent en gang i uken</t>
+  </si>
+  <si>
+    <t>Flere ganger i uken</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -181,7 +199,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0\ %"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -220,18 +238,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D50BF51-3F54-4C63-9415-A7C951CA4FBA}">
   <dimension ref="A2:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +598,7 @@
         <v>87.7</v>
       </c>
       <c r="C4">
-        <v>87.3</v>
+        <v>87.1</v>
       </c>
       <c r="D4">
         <v>86.5</v>
@@ -820,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EBAC85-65D0-49F5-B77B-67D71FA752C2}">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1362,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21616505-E41C-40D2-BC9F-F1CC9CF51B9E}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1561,7 +1580,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +1592,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1604,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1597,7 +1616,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1609,7 +1628,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1621,7 +1640,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1652,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1644,6 +1663,190 @@
         <v>13501</v>
       </c>
       <c r="D23" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4">
+        <v>118</v>
+      </c>
+      <c r="C28" s="4">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4">
+        <v>63</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="4">
+        <v>106</v>
+      </c>
+      <c r="C31" s="4">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>514</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>626</v>
+      </c>
+      <c r="H32" s="7">
+        <f>B32/(SUM(B32:F32))</f>
+        <v>0.8250401284109149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4">
+        <v>11414</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1457</v>
+      </c>
+      <c r="D33" s="4">
+        <v>254</v>
+      </c>
+      <c r="E33" s="4">
+        <v>106</v>
+      </c>
+      <c r="F33" s="4">
+        <v>132</v>
+      </c>
+      <c r="G33">
+        <v>13501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,6 +1854,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008365C2F116C2744FA2493AD02AABFEFC" ma:contentTypeVersion="9" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="430225b2de80e963511afb44b3d1d7d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8d45c07e-cea8-4d72-a849-d7d407865be5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="144e94d494f74b09194e9acc09b310e7" ns3:_="">
     <xsd:import namespace="8d45c07e-cea8-4d72-a849-d7d407865be5"/>
@@ -1826,15 +2038,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1842,6 +2045,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20744E9C-A8FD-436D-B12B-6A4438E7823D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1644029D-DADB-420C-9DCA-B954384F3EAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1855,14 +2066,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20744E9C-A8FD-436D-B12B-6A4438E7823D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
